--- a/data/trans_dic/IP29_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP29_R-Estudios-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -578,52 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -686,30 +662,15 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -754,30 +715,15 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>22,85; 100</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -796,12 +742,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -811,47 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>65,8%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,41%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>25,86%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>24,34%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>58,27%</t>
+          <t>24,45%</t>
         </is>
       </c>
     </row>
@@ -864,62 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,8; 42,1</t>
+          <t>24,96; 42,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,25; 36,53</t>
+          <t>19,86; 37,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,35; 33,76</t>
+          <t>14,22; 33,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,73; 81,0</t>
+          <t>26,87; 43,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,81; 41,86</t>
+          <t>17,84; 32,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,36; 32,6</t>
+          <t>17,72; 37,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 37,28</t>
+          <t>28,3; 39,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,33; 71,15</t>
+          <t>21,14; 31,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,52; 38,96</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>20,35; 32,08</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>18,66; 31,71</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>44,05; 71,01</t>
+          <t>18,44; 30,3</t>
         </is>
       </c>
     </row>
@@ -936,62 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>62,2%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,39%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>24,88%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>29,33%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>59,97%</t>
+          <t>29,56%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,15; 29,61</t>
+          <t>23,8; 30,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,69; 26,61</t>
+          <t>20,73; 27,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,67; 33,83</t>
+          <t>27,15; 34,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55,93; 68,81</t>
+          <t>29,6; 37,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,64; 36,57</t>
+          <t>23,19; 30,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,22; 30,79</t>
+          <t>24,95; 31,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,12; 31,72</t>
+          <t>27,64; 32,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,16; 63,52</t>
+          <t>22,59; 27,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,9; 31,62</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>22,75; 27,37</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>26,71; 31,62</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>55,6; 64,57</t>
+          <t>27,18; 31,88</t>
         </is>
       </c>
     </row>
@@ -1076,62 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>66,73%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>69,75%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>24,65%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>31,28%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>68,09%</t>
+          <t>32,17%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,36; 36,61</t>
+          <t>25,29; 37,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,22; 26,62</t>
+          <t>16,62; 26,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,63; 37,83</t>
+          <t>27,25; 39,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,79; 75,26</t>
+          <t>20,16; 31,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,32; 30,22</t>
+          <t>23,61; 35,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,47; 34,48</t>
+          <t>25,33; 36,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,1; 36,29</t>
+          <t>24,18; 32,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,76; 76,99</t>
+          <t>21,22; 28,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,66; 31,1</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>20,77; 28,54</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>27,01; 35,43</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>61,64; 74,09</t>
+          <t>28,4; 36,48</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>63,72%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>60,19%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>24,98%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>29,38%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>62,07%</t>
+          <t>29,75%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,03; 30,77</t>
+          <t>25,91; 31,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,24</t>
+          <t>21,29; 26,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,29; 32,93</t>
+          <t>27,66; 33,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,07; 68,89</t>
+          <t>28,6; 34,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,79; 33,57</t>
+          <t>24,42; 30,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,85; 29,62</t>
+          <t>26,35; 31,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,27; 31,68</t>
+          <t>28,23; 32,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>55,05; 64,8</t>
+          <t>23,54; 27,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,24; 31,43</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>23,2; 27,08</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>27,52; 31,33</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>58,41; 65,41</t>
+          <t>27,63; 31,58</t>
         </is>
       </c>
     </row>
@@ -1352,15 +1178,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/IP29_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP29_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,45%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>26,5; 42,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>17,85; 33,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,97; 36,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,8; 41,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,55; 37,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,94; 31,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>28,54; 39,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>20,8; 32,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,45; 30,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>29,56%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,96; 42,05</t>
+          <t>29,62; 37,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,86; 37,68</t>
+          <t>23,15; 30,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 33,28</t>
+          <t>25,32; 32,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,87; 43,17</t>
+          <t>23,83; 29,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,84; 32,99</t>
+          <t>20,87; 27,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,72; 37,43</t>
+          <t>26,94; 33,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,3; 39,32</t>
+          <t>27,43; 32,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,14; 31,53</t>
+          <t>22,73; 27,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,44; 30,3</t>
+          <t>26,93; 32,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>32,17%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,8; 30,66</t>
+          <t>20,0; 31,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,73; 27,34</t>
+          <t>23,81; 35,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,15; 34,37</t>
+          <t>25,75; 37,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,6; 37,28</t>
+          <t>25,45; 38,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,19; 30,25</t>
+          <t>16,28; 27,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,95; 31,8</t>
+          <t>27,85; 39,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,64; 32,67</t>
+          <t>23,92; 32,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,59; 27,53</t>
+          <t>21,19; 29,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,18; 31,88</t>
+          <t>28,21; 36,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>29,75%</t>
         </is>
       </c>
     </row>
@@ -1015,172 +1015,61 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,29; 37,75</t>
+          <t>28,5; 34,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 26,77</t>
+          <t>24,09; 29,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,25; 39,34</t>
+          <t>26,45; 32,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,16; 31,05</t>
+          <t>26,11; 31,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,61; 35,62</t>
+          <t>21,05; 26,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,33; 36,67</t>
+          <t>27,57; 33,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,18; 32,42</t>
+          <t>28,14; 32,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,22; 28,74</t>
+          <t>23,44; 27,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,4; 36,48</t>
+          <t>27,83; 31,77</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>28,59%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>23,79%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>30,36%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>31,42%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>27,03%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>29,11%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>29,96%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>25,37%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>29,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>25,91; 31,32</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>21,29; 26,67</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>27,66; 33,13</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>28,6; 34,47</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>24,42; 30,01</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>26,35; 31,94</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>28,23; 32,04</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>23,54; 27,21</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>27,63; 31,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
